--- a/Anthony_Computer.xlsx
+++ b/Anthony_Computer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <xr:revisionPtr revIDLastSave="144" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{05E968C6-CC0F-45DD-8B66-DCDF3B0DD32A}"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="2" windowHeight="8010" windowWidth="14805" xWindow="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="105"/>
+    <workbookView activeTab="2" firstSheet="2" windowHeight="8010" windowWidth="14805" xWindow="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="BEST" sheetId="5" r:id="rId1"/>
@@ -295,6 +295,21 @@
   </si>
   <si>
     <t>TODO: UPDATE TO CANADA COMPUTERS.</t>
+  </si>
+  <si>
+    <t>UNKNOWN - YOU CHOOSE.</t>
+  </si>
+  <si>
+    <t>SEE `GOOD (NVIDIA) (MODIFIED)'</t>
+  </si>
+  <si>
+    <t>SEE `GOOD (NVIDIA) (MODIFIED)' WHICH INCLUDES MORE PARTS.</t>
+  </si>
+  <si>
+    <t>NOT RECOMMENDED AT ALL.</t>
+  </si>
+  <si>
+    <t>NOT RECOMMENDED EXCEPT FOR A VERY GOOD REASON.</t>
   </si>
 </sst>
 </file>
@@ -736,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52E250D-C7DD-42CC-A1FD-EB8493BD6FA0}">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="topLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -848,7 +863,9 @@
         <f>C6*1.13</f>
         <v>0</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
@@ -1362,7 +1379,7 @@
     </row>
     <row r="20">
       <c r="E20" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1382,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C793E3-391B-492D-BF65-82BA9698D6B4}">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection pane="topLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="topLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1730,7 +1747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF9EEE9-E50F-4742-AD10-E9589A0ACB08}">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="topLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2026,8 +2043,8 @@
         <v>1240.6835</v>
       </c>
     </row>
-    <row r="24">
-      <c r="E24" s="0" t="s">
+    <row r="20">
+      <c r="E20" s="0" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2048,7 +2065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B4CBBD-F693-4498-BC32-36C2B50FB7A6}">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="topLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2344,9 +2361,9 @@
         <v>908.4635</v>
       </c>
     </row>
-    <row r="22">
-      <c r="E22" s="0" t="s">
-        <v>81</v>
+    <row r="21">
+      <c r="E21" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088F2435-AD21-4E77-8E50-C518AA22ECDE}">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="topLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2658,9 +2675,9 @@
         <v>672.3048</v>
       </c>
     </row>
-    <row r="22">
-      <c r="E22" s="16" t="s">
-        <v>81</v>
+    <row r="20">
+      <c r="E20" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Anthony_Computer.xlsx
+++ b/Anthony_Computer.xlsx
@@ -310,6 +310,21 @@
   </si>
   <si>
     <t>NOT RECOMMENDED EXCEPT FOR A VERY GOOD REASON.</t>
+  </si>
+  <si>
+    <t>RECOMMENDED&gt;</t>
+  </si>
+  <si>
+    <t>RECOMMENDED.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://www.canadacomputers.com/product_info.php?cPath=43_557_559&amp;item_id=159623</t>
+  </si>
+  <si>
+    <t>https://www.canadacomputers.com/product_info.php?cPath=33_1938&amp;item_id=123142</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C793E3-391B-492D-BF65-82BA9698D6B4}">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection pane="topLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="topLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1441,14 +1456,14 @@
         <v>46</v>
       </c>
       <c r="C2" s="5">
-        <v>219.99</v>
+        <v>239.99</v>
       </c>
       <c r="D2" s="5">
         <f>C2*1.13</f>
-        <v>248.5887</v>
+        <v>271.1887</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1556,7 +1571,9 @@
         <f>C8*1.13</f>
         <v>0</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
@@ -1573,7 +1590,7 @@
         <v>67.7887</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="H9" s="15">
         <v>119.99</v>
@@ -1726,7 +1743,12 @@
     <row r="19" spans="1:5">
       <c r="D19" s="14">
         <f>SUM(D2:D18)</f>
-        <v>1325.4222</v>
+        <v>1348.0222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1757,6 @@
     <hyperlink ref="E4" r:id="rId2" xr:uid="{81B03FE1-BF7D-4E5C-935D-B594DFE67151}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{50576EC1-DD81-4BB6-9A36-63354B9EA2A2}"/>
     <hyperlink ref="E2" r:id="rId4" xr:uid="{55A17AEB-C34A-48FA-9493-9D0E62F43937}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{DFD1C975-0F84-4902-BF75-213E6717A22D}"/>
     <hyperlink ref="E6" r:id="rId7" xr:uid="{FFCA4843-D846-4685-B6B5-FE6118FA9901}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{530A95B1-0DA9-4596-B2C2-8CDF22442A54}"/>
   </hyperlinks>

--- a/Anthony_Computer.xlsx
+++ b/Anthony_Computer.xlsx
@@ -325,6 +325,33 @@
   </si>
   <si>
     <t>https://www.canadacomputers.com/product_info.php?cPath=33_1938&amp;item_id=123142</t>
+  </si>
+  <si>
+    <t>https://www.canadacomputers.com/product_info.php?cPath=26_1832_1833&amp;item_id=170762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRICE LEFT: </t>
+  </si>
+  <si>
+    <t>(=D17+D18+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRICE LEFT (TOTAL PRICE - PURCHASED): </t>
+  </si>
+  <si>
+    <t>16GB 3200mhz RAM</t>
+  </si>
+  <si>
+    <t>16GB 3200MHz</t>
+  </si>
+  <si>
+    <t>Ryzen 5 3600</t>
+  </si>
+  <si>
+    <t>GTX 1650 SUPER</t>
+  </si>
+  <si>
+    <t>Fractal Focus G</t>
   </si>
 </sst>
 </file>
@@ -1414,12 +1441,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C793E3-391B-492D-BF65-82BA9698D6B4}">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection pane="topLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="topLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.44" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="104.5703125" customWidth="1"/>
@@ -1453,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C2" s="5">
         <v>239.99</v>
@@ -1471,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C3" s="5">
         <v>279</v>
@@ -1489,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C4" s="5">
         <v>94.99</v>
@@ -1517,7 +1544,7 @@
         <v>253.12</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1525,14 +1552,14 @@
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C6" s="5">
-        <v>59.99</v>
+        <v>79.99</v>
       </c>
       <c r="D6" s="5">
         <f>C6*1.13</f>
-        <v>67.7887</v>
+        <v>90.3887</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>51</v>
@@ -1743,12 +1770,21 @@
     <row r="19" spans="1:5">
       <c r="D19" s="14">
         <f>SUM(D2:D18)</f>
-        <v>1348.0222</v>
+        <v>1370.6222</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" s="0" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="13">
+        <f>((D2+D3+D4+D5+D6+D7+D8+D9+D10+D11+D12+D13+D14+D15+D16+D17+D18)-D7)</f>
+        <v>1263.2835</v>
       </c>
     </row>
   </sheetData>

--- a/Anthony_Computer.xlsx
+++ b/Anthony_Computer.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BEST" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="GOOD (NVIDIA)" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="GOOD (NVIDIA) (NEWEGG)" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="GOOD (NVIDIA) (MODIFIED)" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="GOOD (AMD GPU)" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="CHEAPER" sheetId="5" state="visible" r:id="rId6"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="93">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -138,10 +138,10 @@
     <t xml:space="preserve">OTHER</t>
   </si>
   <si>
-    <t xml:space="preserve">RECOMMENDED IF YOU HAVE THE MONEY.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: UPDATE TO CANADA COMPUTERS.</t>
+    <t xml:space="preserve">RECOMMENDED?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have the money.</t>
   </si>
   <si>
     <t xml:space="preserve">gtx 1650</t>
@@ -174,9 +174,6 @@
     <t xml:space="preserve">https://www.newegg.ca/thermaltake-smart-500w-ps-spd-0500npcwus-w/p/N82E16817153233?Description=500w&amp;cm_re=500w-_-17-153-233-_-Product</t>
   </si>
   <si>
-    <t xml:space="preserve">SEE `GOOD (NVIDIA) (MODIFIED)' WHICH INCLUDES MORE PARTS.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Price with tax</t>
   </si>
   <si>
@@ -240,19 +237,25 @@
     <t xml:space="preserve">already have some.</t>
   </si>
   <si>
-    <t xml:space="preserve">RECOMMENDED.</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRICE LEFT (TOTAL PRICE - PURCHASED): </t>
   </si>
   <si>
+    <t xml:space="preserve">RECOMMENDED? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">amd rx 570</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.newegg.ca/gigabyte-radeon-rx-570-gv-rx570gaming-8gd-rev-2-0/p/N82E16814932284?Description=rx%20570&amp;cm_re=rx_570-_-14-932-284-_-Product</t>
   </si>
   <si>
-    <t xml:space="preserve">NOT RECOMMENDED EXCEPT FOR A GOOD REASON.</t>
+    <t xml:space="preserve">no, unless you have a good reason to use AMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo; use canada computers</t>
   </si>
   <si>
     <t xml:space="preserve">NVIDIA GT710 (WORKS WELL WITH LINUX)</t>
@@ -276,7 +279,13 @@
     <t xml:space="preserve">860 evo 500gb</t>
   </si>
   <si>
-    <t xml:space="preserve">NOT RECOMMENDED EXCEPT FOR A VERY GOOD REASON.</t>
+    <t xml:space="preserve">todo: use canada computers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no, without a very good reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(if you need even cheaper than this try the ryzen 5 2600)</t>
   </si>
   <si>
     <t xml:space="preserve">ryzen 5 3400g</t>
@@ -291,7 +300,10 @@
     <t xml:space="preserve">https://www.newegg.ca/kingston-a400-240gb/p/N82E16820242400?Description=a400&amp;cm_re=a400-_-20-242-400-_-Product</t>
   </si>
   <si>
-    <t xml:space="preserve">NOT RECOMMENDED AT ALL.</t>
+    <t xml:space="preserve">not at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo: use canada computers.</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -474,10 +486,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,6 +577,90 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4025880</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4160520"/>
+          <a:ext cx="7630560" cy="190440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4025880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619440"/>
+          <a:ext cx="7630560" cy="190080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -576,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -881,13 +973,12 @@
         <v>1856.5222</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="15" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="15" t="s">
+      <c r="C22" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -908,6 +999,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -916,10 +1008,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1217,11 +1309,8 @@
         <v>1144.6335</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.newegg.ca/asus-geforce-gtx-1650-tuf-gtx1650-o4gd6-p-gaming/p/N82E16814126445?Description=gtx%201650&amp;cm_re=gtx_1650-_-14-126-445-_-Product"/>
@@ -1238,6 +1327,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1246,10 +1336,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1273,16 +1363,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>239</v>
@@ -1299,8 +1389,8 @@
         <f aca="false">C2*1.13</f>
         <v>270.07</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>54</v>
+      <c r="E2" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,7 +1398,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>279</v>
@@ -1317,8 +1407,8 @@
         <f aca="false">C3*1.13</f>
         <v>315.27</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>56</v>
+      <c r="E3" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>109.99</v>
@@ -1335,8 +1425,8 @@
         <f aca="false">C4*1.13</f>
         <v>124.2887</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>58</v>
+      <c r="E4" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,8 +1443,8 @@
         <f aca="false">C5*1.13</f>
         <v>225.9887</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>59</v>
+      <c r="E5" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,7 +1452,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>79.99</v>
@@ -1371,8 +1461,8 @@
         <f aca="false">C6*1.13</f>
         <v>90.3887</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>61</v>
+      <c r="E6" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,11 +1479,11 @@
         <f aca="false">C7*1.13</f>
         <v>107.3387</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,10 +1516,10 @@
         <f aca="false">C9*1.13</f>
         <v>67.7887</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="17" t="n">
+      <c r="E9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="16" t="n">
         <v>119.99</v>
       </c>
     </row>
@@ -1438,7 +1528,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="9" t="n">
         <v>139.99</v>
@@ -1447,8 +1537,8 @@
         <f aca="false">C10*1.13</f>
         <v>158.1887</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>67</v>
+      <c r="E10" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,18 +1673,22 @@
         <v>1359.3222</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>72</v>
+      <c r="A22" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="D22" s="13" t="n">
         <f aca="false">((D2+D3+D4+D5+D6+D7+D8+D9+D10+D11+D12+D13+D14+D15+D16+D17+D18)-D7)</f>
         <v>1251.9835</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1623,10 +1717,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1924,9 +2018,18 @@
         <v>1240.6835</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="15" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1953,10 +2056,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1991,7 +2094,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>69.99</v>
@@ -2001,7 +2104,7 @@
         <v>79.0887</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,7 +2130,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>74.99</v>
@@ -2037,7 +2140,7 @@
         <v>84.7387</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>189.99</v>
@@ -2055,7 +2158,7 @@
         <v>214.6887</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,7 +2180,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>109</v>
@@ -2254,9 +2357,22 @@
         <v>908.4635</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="15" t="s">
-        <v>83</v>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2283,10 +2399,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2335,7 +2451,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>209.99</v>
@@ -2345,7 +2461,7 @@
         <v>237.2887</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2469,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>74.99</v>
@@ -2363,7 +2479,7 @@
         <v>84.7387</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2371,7 +2487,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>189.99</v>
@@ -2381,7 +2497,7 @@
         <v>214.6887</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,7 +2519,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>60</v>
@@ -2413,7 +2529,7 @@
         <v>67.8</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,9 +2696,20 @@
         <v>672.3048</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="19" t="s">
-        <v>88</v>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Anthony_Computer.xlsx
+++ b/Anthony_Computer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BEST" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="95">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -172,6 +172,29 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.newegg.ca/thermaltake-smart-500w-ps-spd-0500npcwus-w/p/N82E16817153233?Description=500w&amp;cm_re=500w-_-17-153-233-_-Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a more thorough list of parts, try `GOOD (NVIDIA) (MODIFIED)’ if you’re OK with finding the same products on another store or you’re fine with Canada Computers.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> However, this sheet is more convenient if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">you like Newegg.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Price with tax</t>
@@ -315,7 +338,7 @@
     <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00_);[RED]&quot;($&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -353,6 +376,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans Devanagari"/>
+      <family val="0"/>
     </font>
     <font>
       <u val="single"/>
@@ -428,7 +463,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,7 +524,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,7 +536,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -619,48 +658,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4025880</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 3" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3619440"/>
-          <a:ext cx="7630560" cy="190080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -668,8 +665,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1010,8 +1007,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1309,7 +1306,16 @@
         <v>1144.6335</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
@@ -1327,7 +1333,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1363,16 +1368,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,7 +1385,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>239</v>
@@ -1389,8 +1394,8 @@
         <f aca="false">C2*1.13</f>
         <v>270.07</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>53</v>
+      <c r="E2" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>279</v>
@@ -1407,8 +1412,8 @@
         <f aca="false">C3*1.13</f>
         <v>315.27</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>55</v>
+      <c r="E3" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>109.99</v>
@@ -1425,8 +1430,8 @@
         <f aca="false">C4*1.13</f>
         <v>124.2887</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>57</v>
+      <c r="E4" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,8 +1448,8 @@
         <f aca="false">C5*1.13</f>
         <v>225.9887</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>58</v>
+      <c r="E5" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,7 +1457,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>79.99</v>
@@ -1461,8 +1466,8 @@
         <f aca="false">C6*1.13</f>
         <v>90.3887</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>60</v>
+      <c r="E6" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,11 +1484,11 @@
         <f aca="false">C7*1.13</f>
         <v>107.3387</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>61</v>
+      <c r="E7" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,10 +1521,10 @@
         <f aca="false">C9*1.13</f>
         <v>67.7887</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="16" t="n">
+      <c r="E9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="17" t="n">
         <v>119.99</v>
       </c>
     </row>
@@ -1528,7 +1533,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="9" t="n">
         <v>139.99</v>
@@ -1537,8 +1542,8 @@
         <f aca="false">C10*1.13</f>
         <v>158.1887</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>66</v>
+      <c r="E10" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1602,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,7 +1681,7 @@
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="13" t="n">
         <f aca="false">((D2+D3+D4+D5+D6+D7+D8+D9+D10+D11+D12+D13+D14+D15+D16+D17+D18)-D7)</f>
@@ -1685,10 +1690,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>269.99</v>
@@ -1765,7 +1770,7 @@
         <v>305.0887</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2024,12 +2029,12 @@
         <v>37</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>69.99</v>
@@ -2104,7 +2109,7 @@
         <v>79.0887</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,7 +2135,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>74.99</v>
@@ -2140,7 +2145,7 @@
         <v>84.7387</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>189.99</v>
@@ -2158,7 +2163,7 @@
         <v>214.6887</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2180,7 +2185,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>109</v>
@@ -2359,7 +2364,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,12 +2372,12 @@
         <v>37</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2456,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>209.99</v>
@@ -2461,7 +2466,7 @@
         <v>237.2887</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,7 +2474,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>74.99</v>
@@ -2479,7 +2484,7 @@
         <v>84.7387</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,7 +2492,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>189.99</v>
@@ -2497,7 +2502,7 @@
         <v>214.6887</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2519,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>60</v>
@@ -2529,7 +2534,7 @@
         <v>67.8</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,19 +2702,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="18"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>91</v>
+      <c r="C22" s="19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
